--- a/Data/EC/NIT-8904034722.xlsx
+++ b/Data/EC/NIT-8904034722.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B54FD59F-BCCE-43D9-B56F-FD4CB7DD4CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4124609-CB7A-4241-9508-3BCFAFB640BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{574A0915-3EAD-4C3A-B6EE-E258536E79EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{37516F18-41B6-471D-9CFA-315AD3D46DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="142">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,373 +71,364 @@
     <t>JUAN CARLOS DIAZ GONZALEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>73117668</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GAVIRIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1047426548</t>
+  </si>
+  <si>
+    <t>ANDRES RICARDO DELGADO MEDINA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1128470348</t>
+  </si>
+  <si>
+    <t>JUAN ALEJANDRO URREGO ZAPATA</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>20088052</t>
+  </si>
+  <si>
+    <t>MATH DE TORO GOMEZ</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1051829202</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO NAVARRO BLANCO</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1003720792</t>
-  </si>
-  <si>
-    <t>MELISSA INES GALEANO RACERO</t>
-  </si>
-  <si>
-    <t>73117668</t>
-  </si>
-  <si>
-    <t>JOSE LUIS GAVIRIA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1128470348</t>
-  </si>
-  <si>
-    <t>JUAN ALEJANDRO URREGO ZAPATA</t>
-  </si>
-  <si>
-    <t>1047426548</t>
-  </si>
-  <si>
-    <t>ANDRES RICARDO DELGADO MEDINA</t>
-  </si>
-  <si>
-    <t>1128054098</t>
-  </si>
-  <si>
-    <t>DIEGO ARMANDO RODRIGUEZ CASTILLO</t>
-  </si>
-  <si>
-    <t>20088052</t>
-  </si>
-  <si>
-    <t>MATH DE TORO GOMEZ</t>
-  </si>
-  <si>
-    <t>1051829202</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO NAVARRO BLANCO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -536,7 +527,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -549,9 +542,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -751,23 +742,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,10 +786,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A7E923-A343-2AB2-B9DC-5699366F56C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4D7238-179B-C766-A568-FB982887DA3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1202,8 +1193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E626117-AA4B-4B83-BC74-8D4DB9AB984F}">
-  <dimension ref="B2:J450"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC30E2AC-9AAF-42B5-90F5-60E6112434EC}">
+  <dimension ref="B2:J452"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1214,7 +1205,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1227,7 +1218,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1272,7 +1263,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1304,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14284928</v>
+        <v>14247855</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1320,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1357,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1380,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1394,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1417,19 +1408,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1446,10 +1437,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1463,16 +1454,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1486,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1518,7 +1509,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1532,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1555,19 +1546,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1584,10 +1575,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1601,16 +1592,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1624,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1653,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1670,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1693,19 +1684,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1722,10 +1713,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1739,16 +1730,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1762,19 +1753,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1791,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1808,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1831,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1860,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1877,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1900,19 +1891,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1929,10 +1920,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1946,16 +1937,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1969,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1998,10 +1989,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -2015,16 +2006,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -2038,19 +2029,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2067,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -2084,16 +2075,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -2107,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2136,10 +2127,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2153,16 +2144,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2176,16 +2167,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2199,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2228,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2245,16 +2236,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2268,16 +2259,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2291,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2320,10 +2311,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2337,16 +2328,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2360,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2383,19 +2374,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2406,16 +2397,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>21640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2435,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2452,16 +2443,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2475,16 +2466,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2498,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2527,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2544,16 +2535,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2567,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2590,19 +2581,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2619,10 +2610,10 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2636,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2659,16 +2650,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2682,19 +2673,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2711,10 +2702,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2728,16 +2719,16 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2751,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2774,19 +2765,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2797,16 +2788,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>11804</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2826,10 +2817,10 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2843,16 +2834,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2866,16 +2857,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2889,19 +2880,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2918,10 +2909,10 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2935,16 +2926,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2958,16 +2949,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2981,19 +2972,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3010,10 +3001,10 @@
         <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -3027,16 +3018,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -3050,16 +3041,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -3073,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3102,10 +3093,10 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3119,16 +3110,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3142,16 +3133,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3165,19 +3156,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3194,10 +3185,10 @@
         <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3211,16 +3202,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>30000</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3234,16 +3225,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3257,19 +3248,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3286,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
         <v>27578</v>
@@ -3303,16 +3294,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
-        <v>27578</v>
+        <v>30000</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3326,16 +3317,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3349,19 +3340,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3378,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
         <v>27578</v>
@@ -3395,16 +3386,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>30000</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3418,16 +3409,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3441,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3470,7 +3461,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
         <v>27578</v>
@@ -3487,16 +3478,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>30000</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3510,16 +3501,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3533,19 +3524,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3562,10 +3553,10 @@
         <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3579,16 +3570,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3602,16 +3593,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3625,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3654,10 +3645,10 @@
         <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3671,16 +3662,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3694,16 +3685,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3717,19 +3708,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3746,10 +3737,10 @@
         <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3763,16 +3754,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3786,16 +3777,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F121" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3809,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="F122" s="18">
-        <v>27578</v>
+        <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3838,10 +3829,10 @@
         <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3855,16 +3846,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="F124" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3878,19 +3869,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F125" s="18">
-        <v>113880</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>2847000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3901,19 +3892,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3924,13 +3915,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3947,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3970,13 +3961,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3993,19 +3984,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4016,13 +4007,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -4039,13 +4030,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -4062,13 +4053,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -4085,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4108,13 +4099,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -4131,13 +4122,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -4154,13 +4145,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4177,19 +4168,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4200,13 +4191,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -4223,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4246,13 +4237,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4269,19 +4260,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4292,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4315,13 +4306,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F144" s="18">
         <v>31249</v>
@@ -4338,13 +4329,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4361,19 +4352,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4384,13 +4375,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F147" s="18">
         <v>31249</v>
@@ -4407,13 +4398,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="F148" s="18">
         <v>31249</v>
@@ -4430,13 +4421,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4453,19 +4444,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F150" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G150" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4476,13 +4467,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4499,13 +4490,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4522,13 +4513,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4545,19 +4536,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F154" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G154" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4568,13 +4559,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4591,13 +4582,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4614,13 +4605,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4637,19 +4628,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4660,13 +4651,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4683,13 +4674,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4706,13 +4697,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4729,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F162" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G162" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4752,13 +4743,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4775,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4798,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4821,19 +4812,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4844,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4867,13 +4858,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4890,13 +4881,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4913,19 +4904,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F170" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G170" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4936,13 +4927,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4959,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4982,13 +4973,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -5005,19 +4996,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G174" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5028,13 +5019,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -5051,13 +5042,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5074,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5097,19 +5088,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5120,10 +5111,10 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>64</v>
@@ -5143,13 +5134,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5166,13 +5157,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5189,19 +5180,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F182" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G182" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5212,13 +5203,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5235,13 +5226,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5258,13 +5249,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5281,19 +5272,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5304,13 +5295,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5327,13 +5318,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5350,13 +5341,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5373,19 +5364,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5396,13 +5387,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5419,13 +5410,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5442,13 +5433,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5465,19 +5456,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F194" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G194" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5488,13 +5479,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5511,13 +5502,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5534,13 +5525,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5557,19 +5548,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G198" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5580,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5603,13 +5594,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5626,13 +5617,13 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F201" s="18">
         <v>31249</v>
@@ -5649,19 +5640,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5672,13 +5663,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F203" s="18">
         <v>31249</v>
@@ -5695,13 +5686,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5718,13 +5709,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5741,19 +5732,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G206" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5764,13 +5755,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5787,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="F208" s="18">
         <v>31249</v>
@@ -5810,16 +5801,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F209" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
         <v>781242</v>
@@ -5833,19 +5824,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="F210" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G210" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5856,16 +5847,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F211" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
         <v>781242</v>
@@ -5879,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F212" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
         <v>781242</v>
@@ -5902,16 +5893,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F213" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5925,19 +5916,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="F214" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G214" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5948,16 +5939,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F215" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5971,16 +5962,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F216" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5994,16 +5985,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F217" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -6017,19 +6008,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="F218" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G218" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6040,16 +6031,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F219" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -6063,16 +6054,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F220" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -6086,16 +6077,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F221" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -6109,19 +6100,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="F222" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G222" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6132,16 +6123,16 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F223" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
         <v>781242</v>
@@ -6155,16 +6146,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F224" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6178,16 +6169,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F225" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6201,19 +6192,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F226" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G226" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6224,16 +6215,16 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F227" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
         <v>781242</v>
@@ -6247,16 +6238,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F228" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6270,16 +6261,16 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F229" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
         <v>781242</v>
@@ -6293,19 +6284,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F230" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6316,16 +6307,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F231" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6339,16 +6330,16 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F232" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
         <v>781242</v>
@@ -6362,16 +6353,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="F233" s="18">
-        <v>30000</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6385,19 +6376,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F234" s="18">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G234" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6408,13 +6399,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6431,13 +6422,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6454,13 +6445,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6477,19 +6468,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G238" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6500,13 +6491,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6523,13 +6514,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6546,13 +6537,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6569,19 +6560,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6592,13 +6583,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6615,13 +6606,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6638,13 +6629,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6661,19 +6652,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F246" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G246" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6684,13 +6675,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6707,13 +6698,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6730,13 +6721,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6753,19 +6744,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="F250" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6776,13 +6767,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6799,13 +6790,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6822,13 +6813,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6845,19 +6836,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F254" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G254" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6868,13 +6859,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6891,13 +6882,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6914,13 +6905,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6937,19 +6928,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F258" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G258" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6960,13 +6951,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6983,13 +6974,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -7006,13 +6997,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -7029,19 +7020,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F262" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7052,13 +7043,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7075,13 +7066,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7098,13 +7089,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -7121,19 +7112,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F266" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G266" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7144,13 +7135,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7167,13 +7158,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F268" s="18">
         <v>31249</v>
@@ -7190,13 +7181,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7213,19 +7204,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F270" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G270" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7236,13 +7227,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F271" s="18">
         <v>31249</v>
@@ -7259,13 +7250,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7282,13 +7273,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="F273" s="18">
         <v>31249</v>
@@ -7305,19 +7296,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G274" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7328,13 +7319,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F275" s="18">
         <v>31249</v>
@@ -7351,13 +7342,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F276" s="18">
         <v>31249</v>
@@ -7374,13 +7365,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="F277" s="18">
         <v>31249</v>
@@ -7397,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G278" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7420,13 +7411,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F279" s="18">
         <v>31249</v>
@@ -7443,13 +7434,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F280" s="18">
         <v>31249</v>
@@ -7466,13 +7457,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F281" s="18">
         <v>31249</v>
@@ -7489,19 +7480,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="F282" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G282" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7512,13 +7503,13 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="F283" s="18">
         <v>31249</v>
@@ -7535,13 +7526,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F284" s="18">
         <v>31249</v>
@@ -7558,13 +7549,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F285" s="18">
         <v>31249</v>
@@ -7581,19 +7572,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7604,13 +7595,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F287" s="18">
         <v>31249</v>
@@ -7627,13 +7618,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="F288" s="18">
         <v>31249</v>
@@ -7650,13 +7641,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F289" s="18">
         <v>31249</v>
@@ -7673,19 +7664,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F290" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G290" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7696,13 +7687,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F291" s="18">
         <v>31249</v>
@@ -7719,13 +7710,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="F292" s="18">
         <v>31249</v>
@@ -7742,13 +7733,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7765,19 +7756,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="F294" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G294" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7788,13 +7779,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
@@ -7811,13 +7802,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7834,13 +7825,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F297" s="18">
         <v>31249</v>
@@ -7857,19 +7848,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F298" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G298" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7880,13 +7871,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
@@ -7903,13 +7894,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7926,13 +7917,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7949,19 +7940,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F302" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G302" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7972,13 +7963,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7995,13 +7986,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -8018,13 +8009,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -8041,19 +8032,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F306" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G306" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8064,13 +8055,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -8087,13 +8078,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8110,13 +8101,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
@@ -8133,19 +8124,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F310" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G310" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8156,13 +8147,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8179,13 +8170,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8202,13 +8193,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8225,19 +8216,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F314" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G314" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8248,13 +8239,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8271,13 +8262,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8294,13 +8285,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F317" s="18">
         <v>31249</v>
@@ -8317,19 +8308,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F318" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G318" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8340,16 +8331,16 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F319" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G319" s="18">
         <v>781242</v>
@@ -8363,16 +8354,16 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F320" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G320" s="18">
         <v>781242</v>
@@ -8386,16 +8377,16 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F321" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
         <v>781242</v>
@@ -8409,19 +8400,19 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F322" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G322" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H322" s="19"/>
       <c r="I322" s="19"/>
@@ -8432,16 +8423,16 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F323" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G323" s="18">
         <v>781242</v>
@@ -8455,16 +8446,16 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E324" s="16" t="s">
         <v>100</v>
       </c>
       <c r="F324" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G324" s="18">
         <v>781242</v>
@@ -8478,16 +8469,16 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F325" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G325" s="18">
         <v>781242</v>
@@ -8501,19 +8492,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F326" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G326" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8524,16 +8515,16 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F327" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G327" s="18">
         <v>781242</v>
@@ -8547,16 +8538,16 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F328" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G328" s="18">
         <v>781242</v>
@@ -8570,16 +8561,16 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F329" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G329" s="18">
         <v>781242</v>
@@ -8593,19 +8584,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F330" s="18">
-        <v>29509</v>
+        <v>40000</v>
       </c>
       <c r="G330" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8616,16 +8607,16 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F331" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
         <v>781242</v>
@@ -8639,16 +8630,16 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F332" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G332" s="18">
         <v>781242</v>
@@ -8662,19 +8653,19 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F333" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G333" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H333" s="19"/>
       <c r="I333" s="19"/>
@@ -8685,13 +8676,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F334" s="18">
         <v>40000</v>
@@ -8708,19 +8699,19 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="F335" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G335" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H335" s="19"/>
       <c r="I335" s="19"/>
@@ -8731,19 +8722,19 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F336" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G336" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H336" s="19"/>
       <c r="I336" s="19"/>
@@ -8754,19 +8745,19 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="F337" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G337" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H337" s="19"/>
       <c r="I337" s="19"/>
@@ -8777,13 +8768,13 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="F338" s="18">
         <v>40000</v>
@@ -8800,19 +8791,19 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="F339" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19"/>
@@ -8823,19 +8814,19 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="F340" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19"/>
@@ -8846,19 +8837,19 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="F341" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H341" s="19"/>
       <c r="I341" s="19"/>
@@ -8869,13 +8860,13 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="F342" s="18">
         <v>40000</v>
@@ -8892,19 +8883,19 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F343" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H343" s="19"/>
       <c r="I343" s="19"/>
@@ -8915,19 +8906,19 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F344" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H344" s="19"/>
       <c r="I344" s="19"/>
@@ -8938,19 +8929,19 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F345" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G345" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H345" s="19"/>
       <c r="I345" s="19"/>
@@ -8961,13 +8952,13 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F346" s="18">
         <v>40000</v>
@@ -8984,19 +8975,19 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F347" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G347" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H347" s="19"/>
       <c r="I347" s="19"/>
@@ -9007,19 +8998,19 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F348" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G348" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H348" s="19"/>
       <c r="I348" s="19"/>
@@ -9030,19 +9021,19 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F349" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H349" s="19"/>
       <c r="I349" s="19"/>
@@ -9053,13 +9044,13 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="F350" s="18">
         <v>40000</v>
@@ -9076,19 +9067,19 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="F351" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H351" s="19"/>
       <c r="I351" s="19"/>
@@ -9099,19 +9090,19 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="F352" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G352" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H352" s="19"/>
       <c r="I352" s="19"/>
@@ -9122,19 +9113,19 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="F353" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H353" s="19"/>
       <c r="I353" s="19"/>
@@ -9145,13 +9136,13 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="F354" s="18">
         <v>40000</v>
@@ -9168,19 +9159,19 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F355" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G355" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H355" s="19"/>
       <c r="I355" s="19"/>
@@ -9191,19 +9182,19 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F356" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G356" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H356" s="19"/>
       <c r="I356" s="19"/>
@@ -9214,19 +9205,19 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F357" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G357" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H357" s="19"/>
       <c r="I357" s="19"/>
@@ -9237,13 +9228,13 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F358" s="18">
         <v>40000</v>
@@ -9260,19 +9251,19 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F359" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H359" s="19"/>
       <c r="I359" s="19"/>
@@ -9283,19 +9274,19 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F360" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G360" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H360" s="19"/>
       <c r="I360" s="19"/>
@@ -9306,19 +9297,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F361" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9329,13 +9320,13 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F362" s="18">
         <v>40000</v>
@@ -9352,19 +9343,19 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="F363" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G363" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H363" s="19"/>
       <c r="I363" s="19"/>
@@ -9375,19 +9366,19 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F364" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G364" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H364" s="19"/>
       <c r="I364" s="19"/>
@@ -9398,19 +9389,19 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="F365" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G365" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H365" s="19"/>
       <c r="I365" s="19"/>
@@ -9421,13 +9412,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F366" s="18">
         <v>40000</v>
@@ -9444,19 +9435,19 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F367" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G367" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H367" s="19"/>
       <c r="I367" s="19"/>
@@ -9467,19 +9458,19 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="F368" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G368" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H368" s="19"/>
       <c r="I368" s="19"/>
@@ -9490,19 +9481,19 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F369" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G369" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H369" s="19"/>
       <c r="I369" s="19"/>
@@ -9513,13 +9504,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F370" s="18">
         <v>40000</v>
@@ -9536,19 +9527,19 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F371" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G371" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H371" s="19"/>
       <c r="I371" s="19"/>
@@ -9559,19 +9550,19 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F372" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G372" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H372" s="19"/>
       <c r="I372" s="19"/>
@@ -9582,19 +9573,19 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F373" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G373" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H373" s="19"/>
       <c r="I373" s="19"/>
@@ -9605,13 +9596,13 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="F374" s="18">
         <v>40000</v>
@@ -9628,19 +9619,19 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F375" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G375" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H375" s="19"/>
       <c r="I375" s="19"/>
@@ -9651,19 +9642,19 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F376" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G376" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H376" s="19"/>
       <c r="I376" s="19"/>
@@ -9674,19 +9665,19 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F377" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G377" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H377" s="19"/>
       <c r="I377" s="19"/>
@@ -9697,13 +9688,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F378" s="18">
         <v>40000</v>
@@ -9720,19 +9711,19 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="F379" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G379" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H379" s="19"/>
       <c r="I379" s="19"/>
@@ -9743,19 +9734,19 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="F380" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G380" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H380" s="19"/>
       <c r="I380" s="19"/>
@@ -9766,19 +9757,19 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F381" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G381" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H381" s="19"/>
       <c r="I381" s="19"/>
@@ -9789,13 +9780,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F382" s="18">
         <v>40000</v>
@@ -9812,19 +9803,19 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F383" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G383" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H383" s="19"/>
       <c r="I383" s="19"/>
@@ -9835,19 +9826,19 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F384" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G384" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H384" s="19"/>
       <c r="I384" s="19"/>
@@ -9858,19 +9849,19 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="F385" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G385" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H385" s="19"/>
       <c r="I385" s="19"/>
@@ -9881,13 +9872,13 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F386" s="18">
         <v>40000</v>
@@ -9904,19 +9895,19 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="F387" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G387" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H387" s="19"/>
       <c r="I387" s="19"/>
@@ -9927,19 +9918,19 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="F388" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G388" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H388" s="19"/>
       <c r="I388" s="19"/>
@@ -9950,19 +9941,19 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="F389" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G389" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H389" s="19"/>
       <c r="I389" s="19"/>
@@ -9973,13 +9964,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="F390" s="18">
         <v>40000</v>
@@ -9996,19 +9987,19 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F391" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G391" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H391" s="19"/>
       <c r="I391" s="19"/>
@@ -10019,19 +10010,19 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F392" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G392" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H392" s="19"/>
       <c r="I392" s="19"/>
@@ -10042,19 +10033,19 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="F393" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G393" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H393" s="19"/>
       <c r="I393" s="19"/>
@@ -10065,13 +10056,13 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F394" s="18">
         <v>40000</v>
@@ -10088,19 +10079,19 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F395" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G395" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H395" s="19"/>
       <c r="I395" s="19"/>
@@ -10111,19 +10102,19 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F396" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G396" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H396" s="19"/>
       <c r="I396" s="19"/>
@@ -10134,19 +10125,19 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="F397" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G397" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H397" s="19"/>
       <c r="I397" s="19"/>
@@ -10157,13 +10148,13 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="F398" s="18">
         <v>40000</v>
@@ -10180,19 +10171,19 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="F399" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G399" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H399" s="19"/>
       <c r="I399" s="19"/>
@@ -10203,19 +10194,19 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="F400" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G400" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H400" s="19"/>
       <c r="I400" s="19"/>
@@ -10226,19 +10217,19 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="F401" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G401" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H401" s="19"/>
       <c r="I401" s="19"/>
@@ -10249,13 +10240,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F402" s="18">
         <v>40000</v>
@@ -10272,19 +10263,19 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="F403" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G403" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H403" s="19"/>
       <c r="I403" s="19"/>
@@ -10295,19 +10286,19 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F404" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G404" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H404" s="19"/>
       <c r="I404" s="19"/>
@@ -10318,19 +10309,19 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="F405" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G405" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H405" s="19"/>
       <c r="I405" s="19"/>
@@ -10341,13 +10332,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F406" s="18">
         <v>40000</v>
@@ -10364,19 +10355,19 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F407" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G407" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H407" s="19"/>
       <c r="I407" s="19"/>
@@ -10387,19 +10378,19 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F408" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G408" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H408" s="19"/>
       <c r="I408" s="19"/>
@@ -10410,19 +10401,19 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="F409" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G409" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H409" s="19"/>
       <c r="I409" s="19"/>
@@ -10433,13 +10424,13 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D410" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E410" s="16" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="F410" s="18">
         <v>40000</v>
@@ -10456,19 +10447,19 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D411" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E411" s="16" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="F411" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G411" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H411" s="19"/>
       <c r="I411" s="19"/>
@@ -10479,19 +10470,19 @@
         <v>8</v>
       </c>
       <c r="C412" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D412" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E412" s="16" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F412" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G412" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H412" s="19"/>
       <c r="I412" s="19"/>
@@ -10502,19 +10493,19 @@
         <v>8</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D413" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E413" s="16" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F413" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G413" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H413" s="19"/>
       <c r="I413" s="19"/>
@@ -10525,13 +10516,13 @@
         <v>8</v>
       </c>
       <c r="C414" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D414" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E414" s="16" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="F414" s="18">
         <v>40000</v>
@@ -10548,19 +10539,19 @@
         <v>8</v>
       </c>
       <c r="C415" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D415" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E415" s="16" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="F415" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G415" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H415" s="19"/>
       <c r="I415" s="19"/>
@@ -10571,19 +10562,19 @@
         <v>8</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D416" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E416" s="16" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F416" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G416" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H416" s="19"/>
       <c r="I416" s="19"/>
@@ -10594,19 +10585,19 @@
         <v>8</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D417" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E417" s="16" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F417" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G417" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H417" s="19"/>
       <c r="I417" s="19"/>
@@ -10617,13 +10608,13 @@
         <v>8</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D418" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E418" s="16" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F418" s="18">
         <v>40000</v>
@@ -10640,19 +10631,19 @@
         <v>8</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D419" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E419" s="16" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="F419" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G419" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H419" s="19"/>
       <c r="I419" s="19"/>
@@ -10663,19 +10654,19 @@
         <v>8</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D420" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E420" s="16" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F420" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G420" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H420" s="19"/>
       <c r="I420" s="19"/>
@@ -10686,19 +10677,19 @@
         <v>8</v>
       </c>
       <c r="C421" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D421" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E421" s="16" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="F421" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G421" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H421" s="19"/>
       <c r="I421" s="19"/>
@@ -10709,13 +10700,13 @@
         <v>8</v>
       </c>
       <c r="C422" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D422" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E422" s="16" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F422" s="18">
         <v>40000</v>
@@ -10732,19 +10723,19 @@
         <v>8</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D423" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E423" s="16" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F423" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G423" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H423" s="19"/>
       <c r="I423" s="19"/>
@@ -10755,19 +10746,19 @@
         <v>8</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D424" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F424" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G424" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H424" s="19"/>
       <c r="I424" s="19"/>
@@ -10778,19 +10769,19 @@
         <v>8</v>
       </c>
       <c r="C425" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D425" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E425" s="16" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F425" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G425" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H425" s="19"/>
       <c r="I425" s="19"/>
@@ -10801,13 +10792,13 @@
         <v>8</v>
       </c>
       <c r="C426" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D426" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E426" s="16" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F426" s="18">
         <v>40000</v>
@@ -10824,19 +10815,19 @@
         <v>8</v>
       </c>
       <c r="C427" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E427" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D427" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="F427" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G427" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H427" s="19"/>
       <c r="I427" s="19"/>
@@ -10847,19 +10838,19 @@
         <v>8</v>
       </c>
       <c r="C428" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D428" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E428" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D428" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E428" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="F428" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G428" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H428" s="19"/>
       <c r="I428" s="19"/>
@@ -10870,19 +10861,19 @@
         <v>8</v>
       </c>
       <c r="C429" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D429" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E429" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D429" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="F429" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G429" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H429" s="19"/>
       <c r="I429" s="19"/>
@@ -10893,13 +10884,13 @@
         <v>8</v>
       </c>
       <c r="C430" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E430" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="D430" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="F430" s="18">
         <v>40000</v>
@@ -10916,19 +10907,19 @@
         <v>8</v>
       </c>
       <c r="C431" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D431" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E431" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="F431" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G431" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H431" s="19"/>
       <c r="I431" s="19"/>
@@ -10939,19 +10930,19 @@
         <v>8</v>
       </c>
       <c r="C432" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D432" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E432" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E432" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="F432" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G432" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H432" s="19"/>
       <c r="I432" s="19"/>
@@ -10962,19 +10953,19 @@
         <v>8</v>
       </c>
       <c r="C433" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D433" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E433" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E433" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="F433" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G433" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H433" s="19"/>
       <c r="I433" s="19"/>
@@ -10985,13 +10976,13 @@
         <v>8</v>
       </c>
       <c r="C434" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D434" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E434" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="E434" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F434" s="18">
         <v>40000</v>
@@ -11008,19 +10999,19 @@
         <v>8</v>
       </c>
       <c r="C435" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D435" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E435" s="16" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F435" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G435" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H435" s="19"/>
       <c r="I435" s="19"/>
@@ -11031,19 +11022,19 @@
         <v>8</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D436" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E436" s="16" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F436" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G436" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H436" s="19"/>
       <c r="I436" s="19"/>
@@ -11054,19 +11045,19 @@
         <v>8</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D437" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E437" s="16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F437" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G437" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H437" s="19"/>
       <c r="I437" s="19"/>
@@ -11077,13 +11068,13 @@
         <v>8</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D438" s="17" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="E438" s="16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="F438" s="18">
         <v>40000</v>
@@ -11100,19 +11091,19 @@
         <v>8</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D439" s="17" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E439" s="16" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F439" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G439" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H439" s="19"/>
       <c r="I439" s="19"/>
@@ -11123,19 +11114,19 @@
         <v>8</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D440" s="17" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E440" s="16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F440" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G440" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H440" s="19"/>
       <c r="I440" s="19"/>
@@ -11146,19 +11137,19 @@
         <v>8</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D441" s="17" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="E441" s="16" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F441" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G441" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H441" s="19"/>
       <c r="I441" s="19"/>
@@ -11169,19 +11160,19 @@
         <v>8</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="D442" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E442" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F442" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G442" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H442" s="19"/>
       <c r="I442" s="19"/>
@@ -11192,16 +11183,16 @@
         <v>8</v>
       </c>
       <c r="C443" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D443" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E443" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D443" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="F443" s="18">
-        <v>21640</v>
+        <v>31249</v>
       </c>
       <c r="G443" s="18">
         <v>781242</v>
@@ -11211,56 +11202,102 @@
       <c r="J443" s="20"/>
     </row>
     <row r="444" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B444" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C444" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D444" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E444" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F444" s="24">
-        <v>11804</v>
-      </c>
-      <c r="G444" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H444" s="25"/>
-      <c r="I444" s="25"/>
-      <c r="J444" s="26"/>
-    </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B449" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C449" s="32"/>
-      <c r="H449" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I449" s="1"/>
-      <c r="J449" s="1"/>
-    </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B450" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C450" s="32"/>
-      <c r="H450" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I450" s="1"/>
-      <c r="J450" s="1"/>
+      <c r="B444" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D444" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E444" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F444" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G444" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H444" s="19"/>
+      <c r="I444" s="19"/>
+      <c r="J444" s="20"/>
+    </row>
+    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B445" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D445" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E445" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F445" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G445" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H445" s="19"/>
+      <c r="I445" s="19"/>
+      <c r="J445" s="20"/>
+    </row>
+    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B446" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C446" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="F446" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G446" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H446" s="25"/>
+      <c r="I446" s="25"/>
+      <c r="J446" s="26"/>
+    </row>
+    <row r="451" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B451" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C451" s="32"/>
+      <c r="H451" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I451" s="1"/>
+      <c r="J451" s="1"/>
+    </row>
+    <row r="452" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B452" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C452" s="32"/>
+      <c r="H452" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B450:C450"/>
-    <mergeCell ref="B449:C449"/>
-    <mergeCell ref="H450:J450"/>
-    <mergeCell ref="H449:J449"/>
+    <mergeCell ref="B452:C452"/>
+    <mergeCell ref="B451:C451"/>
+    <mergeCell ref="H452:J452"/>
+    <mergeCell ref="H451:J451"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
